--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit3-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit3-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.628170333333333</v>
+        <v>2.384498666666666</v>
       </c>
       <c r="H2">
-        <v>7.884511</v>
+        <v>7.153495999999999</v>
       </c>
       <c r="I2">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982828</v>
       </c>
       <c r="J2">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982829</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.33145033333333</v>
+        <v>59.08793033333334</v>
       </c>
       <c r="N2">
-        <v>147.994351</v>
+        <v>177.263791</v>
       </c>
       <c r="O2">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="P2">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="Q2">
-        <v>129.6514542663734</v>
+        <v>140.8950910959262</v>
       </c>
       <c r="R2">
-        <v>1166.863088397361</v>
+        <v>1268.055819863336</v>
       </c>
       <c r="S2">
-        <v>0.04338194801693834</v>
+        <v>0.03989311236019943</v>
       </c>
       <c r="T2">
-        <v>0.04338194801693834</v>
+        <v>0.03989311236019943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.628170333333333</v>
+        <v>2.384498666666666</v>
       </c>
       <c r="H3">
-        <v>7.884511</v>
+        <v>7.153495999999999</v>
       </c>
       <c r="I3">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982828</v>
       </c>
       <c r="J3">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982829</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.04967466666666667</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N3">
-        <v>0.149024</v>
+        <v>0.092642</v>
       </c>
       <c r="O3">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="P3">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="Q3">
-        <v>0.1305534852515556</v>
+        <v>0.07363490849244443</v>
       </c>
       <c r="R3">
-        <v>1.174981367264</v>
+        <v>0.6627141764319999</v>
       </c>
       <c r="S3">
-        <v>4.368377156014705E-05</v>
+        <v>2.08490278495375E-05</v>
       </c>
       <c r="T3">
-        <v>4.368377156014705E-05</v>
+        <v>2.08490278495375E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.014214</v>
+        <v>2.384498666666666</v>
       </c>
       <c r="H4">
-        <v>168.042642</v>
+        <v>7.153495999999999</v>
       </c>
       <c r="I4">
-        <v>0.9255308155773353</v>
+        <v>0.03997130847982828</v>
       </c>
       <c r="J4">
-        <v>0.9255308155773353</v>
+        <v>0.03997130847982829</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>49.33145033333333</v>
+        <v>0.05196466666666667</v>
       </c>
       <c r="N4">
-        <v>147.994351</v>
+        <v>0.155894</v>
       </c>
       <c r="O4">
-        <v>0.9989940555897285</v>
+        <v>0.00087772591751267</v>
       </c>
       <c r="P4">
-        <v>0.9989940555897285</v>
+        <v>0.0008777259175126701</v>
       </c>
       <c r="Q4">
-        <v>2763.262415901705</v>
+        <v>0.1239096783804444</v>
       </c>
       <c r="R4">
-        <v>24869.36174311534</v>
+        <v>1.115187105424</v>
       </c>
       <c r="S4">
-        <v>0.9245997830268713</v>
+        <v>3.508385340963924E-05</v>
       </c>
       <c r="T4">
-        <v>0.9245997830268713</v>
+        <v>3.508385340963925E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.014214</v>
+        <v>2.384498666666666</v>
       </c>
       <c r="H5">
-        <v>168.042642</v>
+        <v>7.153495999999999</v>
       </c>
       <c r="I5">
-        <v>0.9255308155773353</v>
+        <v>0.03997130847982828</v>
       </c>
       <c r="J5">
-        <v>0.9255308155773353</v>
+        <v>0.03997130847982829</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04967466666666667</v>
+        <v>0.03297533333333334</v>
       </c>
       <c r="N5">
-        <v>0.149024</v>
+        <v>0.098926</v>
       </c>
       <c r="O5">
-        <v>0.001005944410271468</v>
+        <v>0.0005569804746549476</v>
       </c>
       <c r="P5">
-        <v>0.001005944410271468</v>
+        <v>0.0005569804746549476</v>
       </c>
       <c r="Q5">
-        <v>2.782487409045333</v>
+        <v>0.07862963836622221</v>
       </c>
       <c r="R5">
-        <v>25.042386681408</v>
+        <v>0.7076667452959998</v>
       </c>
       <c r="S5">
-        <v>0.0009310325504640137</v>
+        <v>2.226323836967409E-05</v>
       </c>
       <c r="T5">
-        <v>0.0009310325504640137</v>
+        <v>2.226323836967409E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,22 +782,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.003554</v>
+        <v>56.014214</v>
       </c>
       <c r="H6">
-        <v>0.010662</v>
+        <v>168.042642</v>
       </c>
       <c r="I6">
-        <v>5.872324689875768E-05</v>
+        <v>0.9389652669334476</v>
       </c>
       <c r="J6">
-        <v>5.872324689875769E-05</v>
+        <v>0.9389652669334477</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,105 +806,105 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.33145033333333</v>
+        <v>59.08793033333334</v>
       </c>
       <c r="N6">
-        <v>147.994351</v>
+        <v>177.263791</v>
       </c>
       <c r="O6">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="P6">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="Q6">
-        <v>0.1753239744846666</v>
+        <v>3309.763974508425</v>
       </c>
       <c r="R6">
-        <v>1.577915770362</v>
+        <v>29787.87577057583</v>
       </c>
       <c r="S6">
-        <v>5.866417457678689E-05</v>
+        <v>0.9371283633360205</v>
       </c>
       <c r="T6">
-        <v>5.86641745767869E-05</v>
+        <v>0.9371283633360206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>56.014214</v>
+      </c>
+      <c r="H7">
+        <v>168.042642</v>
+      </c>
+      <c r="I7">
+        <v>0.9389652669334476</v>
+      </c>
+      <c r="J7">
+        <v>0.9389652669334477</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.003554</v>
-      </c>
-      <c r="H7">
-        <v>0.010662</v>
-      </c>
-      <c r="I7">
-        <v>5.872324689875768E-05</v>
-      </c>
-      <c r="J7">
-        <v>5.872324689875769E-05</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>0.04967466666666667</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N7">
-        <v>0.149024</v>
+        <v>0.092642</v>
       </c>
       <c r="O7">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="P7">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="Q7">
-        <v>0.0001765437653333333</v>
+        <v>1.729756271129334</v>
       </c>
       <c r="R7">
-        <v>0.001588893888</v>
+        <v>15.567806440164</v>
       </c>
       <c r="S7">
-        <v>5.907232197079664E-08</v>
+        <v>0.0004897641269342796</v>
       </c>
       <c r="T7">
-        <v>5.907232197079664E-08</v>
+        <v>0.0004897641269342796</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.813827666666667</v>
+        <v>56.014214</v>
       </c>
       <c r="H8">
-        <v>5.441483</v>
+        <v>168.042642</v>
       </c>
       <c r="I8">
-        <v>0.02997013221763203</v>
+        <v>0.9389652669334476</v>
       </c>
       <c r="J8">
-        <v>0.02997013221763203</v>
+        <v>0.9389652669334477</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>49.33145033333333</v>
+        <v>0.05196466666666667</v>
       </c>
       <c r="N8">
-        <v>147.994351</v>
+        <v>0.155894</v>
       </c>
       <c r="O8">
-        <v>0.9989940555897285</v>
+        <v>0.00087772591751267</v>
       </c>
       <c r="P8">
-        <v>0.9989940555897285</v>
+        <v>0.0008777259175126701</v>
       </c>
       <c r="Q8">
-        <v>89.47874945139255</v>
+        <v>2.910759959105333</v>
       </c>
       <c r="R8">
-        <v>805.3087450625329</v>
+        <v>26.196839631948</v>
       </c>
       <c r="S8">
-        <v>0.0299399839306526</v>
+        <v>0.0008241541504316894</v>
       </c>
       <c r="T8">
-        <v>0.02993998393065261</v>
+        <v>0.0008241541504316896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.813827666666667</v>
+        <v>56.014214</v>
       </c>
       <c r="H9">
-        <v>5.441483</v>
+        <v>168.042642</v>
       </c>
       <c r="I9">
-        <v>0.02997013221763203</v>
+        <v>0.9389652669334476</v>
       </c>
       <c r="J9">
-        <v>0.02997013221763203</v>
+        <v>0.9389652669334477</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.04967466666666667</v>
+        <v>0.03297533333333334</v>
       </c>
       <c r="N9">
-        <v>0.149024</v>
+        <v>0.098926</v>
       </c>
       <c r="O9">
-        <v>0.001005944410271468</v>
+        <v>0.0005569804746549476</v>
       </c>
       <c r="P9">
-        <v>0.001005944410271468</v>
+        <v>0.0005569804746549476</v>
       </c>
       <c r="Q9">
-        <v>0.09010128473244444</v>
+        <v>1.847087378054667</v>
       </c>
       <c r="R9">
-        <v>0.8109115625919999</v>
+        <v>16.623786402492</v>
       </c>
       <c r="S9">
-        <v>3.014828697942379E-05</v>
+        <v>0.0005229853200611012</v>
       </c>
       <c r="T9">
-        <v>3.014828697942379E-05</v>
+        <v>0.0005229853200611013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06141066666666666</v>
+        <v>0.036048</v>
       </c>
       <c r="H10">
-        <v>0.184232</v>
+        <v>0.108144</v>
       </c>
       <c r="I10">
-        <v>0.001014697169635334</v>
+        <v>0.0006042719789376481</v>
       </c>
       <c r="J10">
-        <v>0.001014697169635334</v>
+        <v>0.0006042719789376483</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.33145033333333</v>
+        <v>59.08793033333334</v>
       </c>
       <c r="N10">
-        <v>147.994351</v>
+        <v>177.263791</v>
       </c>
       <c r="O10">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="P10">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="Q10">
-        <v>3.029477252603555</v>
+        <v>2.130001712656</v>
       </c>
       <c r="R10">
-        <v>27.265295273432</v>
+        <v>19.170015413904</v>
       </c>
       <c r="S10">
-        <v>0.001013676440689421</v>
+        <v>0.0006030898379032304</v>
       </c>
       <c r="T10">
-        <v>0.001013676440689421</v>
+        <v>0.0006030898379032305</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,46 +1098,666 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06141066666666666</v>
+        <v>0.036048</v>
       </c>
       <c r="H11">
-        <v>0.184232</v>
+        <v>0.108144</v>
       </c>
       <c r="I11">
-        <v>0.001014697169635334</v>
+        <v>0.0006042719789376481</v>
       </c>
       <c r="J11">
-        <v>0.001014697169635334</v>
+        <v>0.0006042719789376483</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.04967466666666667</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N11">
-        <v>0.149024</v>
+        <v>0.092642</v>
       </c>
       <c r="O11">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="P11">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="Q11">
-        <v>0.003050554396444444</v>
+        <v>0.001113186272</v>
       </c>
       <c r="R11">
-        <v>0.02745498956799999</v>
+        <v>0.010018676448</v>
       </c>
       <c r="S11">
-        <v>1.020728945912944E-06</v>
+        <v>3.151881636280196E-07</v>
       </c>
       <c r="T11">
-        <v>1.020728945912944E-06</v>
+        <v>3.151881636280197E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.036048</v>
+      </c>
+      <c r="H12">
+        <v>0.108144</v>
+      </c>
+      <c r="I12">
+        <v>0.0006042719789376481</v>
+      </c>
+      <c r="J12">
+        <v>0.0006042719789376483</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.05196466666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.155894</v>
+      </c>
+      <c r="O12">
+        <v>0.00087772591751267</v>
+      </c>
+      <c r="P12">
+        <v>0.0008777259175126701</v>
+      </c>
+      <c r="Q12">
+        <v>0.001873222304</v>
+      </c>
+      <c r="R12">
+        <v>0.016859000736</v>
+      </c>
+      <c r="S12">
+        <v>5.30385177140244E-07</v>
+      </c>
+      <c r="T12">
+        <v>5.303851771402441E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.036048</v>
+      </c>
+      <c r="H13">
+        <v>0.108144</v>
+      </c>
+      <c r="I13">
+        <v>0.0006042719789376481</v>
+      </c>
+      <c r="J13">
+        <v>0.0006042719789376483</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.098926</v>
+      </c>
+      <c r="O13">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="P13">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="Q13">
+        <v>0.001188694816</v>
+      </c>
+      <c r="R13">
+        <v>0.010698253344</v>
+      </c>
+      <c r="S13">
+        <v>3.365676936493758E-07</v>
+      </c>
+      <c r="T13">
+        <v>3.365676936493758E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.188166</v>
+      </c>
+      <c r="H14">
+        <v>3.564498</v>
+      </c>
+      <c r="I14">
+        <v>0.01991720539631685</v>
+      </c>
+      <c r="J14">
+        <v>0.01991720539631685</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>59.08793033333334</v>
+      </c>
+      <c r="N14">
+        <v>177.263791</v>
+      </c>
+      <c r="O14">
+        <v>0.9980436937742903</v>
+      </c>
+      <c r="P14">
+        <v>0.9980436937742903</v>
+      </c>
+      <c r="Q14">
+        <v>70.20626983243534</v>
+      </c>
+      <c r="R14">
+        <v>631.8564284919181</v>
+      </c>
+      <c r="S14">
+        <v>0.01987824124340129</v>
+      </c>
+      <c r="T14">
+        <v>0.01987824124340129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.188166</v>
+      </c>
+      <c r="H15">
+        <v>3.564498</v>
+      </c>
+      <c r="I15">
+        <v>0.01991720539631685</v>
+      </c>
+      <c r="J15">
+        <v>0.01991720539631685</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.092642</v>
+      </c>
+      <c r="O15">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="P15">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="Q15">
+        <v>0.03669135819066667</v>
+      </c>
+      <c r="R15">
+        <v>0.330222223716</v>
+      </c>
+      <c r="S15">
+        <v>1.038881101934225E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.038881101934225E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.188166</v>
+      </c>
+      <c r="H16">
+        <v>3.564498</v>
+      </c>
+      <c r="I16">
+        <v>0.01991720539631685</v>
+      </c>
+      <c r="J16">
+        <v>0.01991720539631685</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05196466666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.155894</v>
+      </c>
+      <c r="O16">
+        <v>0.00087772591751267</v>
+      </c>
+      <c r="P16">
+        <v>0.0008777259175126701</v>
+      </c>
+      <c r="Q16">
+        <v>0.06174265013466667</v>
+      </c>
+      <c r="R16">
+        <v>0.555683851212</v>
+      </c>
+      <c r="S16">
+        <v>1.748184738077051E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.748184738077051E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.188166</v>
+      </c>
+      <c r="H17">
+        <v>3.564498</v>
+      </c>
+      <c r="I17">
+        <v>0.01991720539631685</v>
+      </c>
+      <c r="J17">
+        <v>0.01991720539631685</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.098926</v>
+      </c>
+      <c r="O17">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="P17">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="Q17">
+        <v>0.03918016990533334</v>
+      </c>
+      <c r="R17">
+        <v>0.352621529148</v>
+      </c>
+      <c r="S17">
+        <v>1.109349451544064E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.109349451544064E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.03233</v>
+      </c>
+      <c r="H18">
+        <v>0.09698999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="J18">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>59.08793033333334</v>
+      </c>
+      <c r="N18">
+        <v>177.263791</v>
+      </c>
+      <c r="O18">
+        <v>0.9980436937742903</v>
+      </c>
+      <c r="P18">
+        <v>0.9980436937742903</v>
+      </c>
+      <c r="Q18">
+        <v>1.910312787676667</v>
+      </c>
+      <c r="R18">
+        <v>17.19281508909</v>
+      </c>
+      <c r="S18">
+        <v>0.0005408869967657413</v>
+      </c>
+      <c r="T18">
+        <v>0.0005408869967657413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.03233</v>
+      </c>
+      <c r="H19">
+        <v>0.09698999999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="J19">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.092642</v>
+      </c>
+      <c r="O19">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="P19">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="Q19">
+        <v>0.0009983719533333333</v>
+      </c>
+      <c r="R19">
+        <v>0.008985347579999999</v>
+      </c>
+      <c r="S19">
+        <v>2.826795752911084E-07</v>
+      </c>
+      <c r="T19">
+        <v>2.826795752911084E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.03233</v>
+      </c>
+      <c r="H20">
+        <v>0.09698999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="J20">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.05196466666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.155894</v>
+      </c>
+      <c r="O20">
+        <v>0.00087772591751267</v>
+      </c>
+      <c r="P20">
+        <v>0.0008777259175126701</v>
+      </c>
+      <c r="Q20">
+        <v>0.001680017673333333</v>
+      </c>
+      <c r="R20">
+        <v>0.01512015906</v>
+      </c>
+      <c r="S20">
+        <v>4.756811134305395E-07</v>
+      </c>
+      <c r="T20">
+        <v>4.756811134305396E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.03233</v>
+      </c>
+      <c r="H21">
+        <v>0.09698999999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="J21">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.098926</v>
+      </c>
+      <c r="O21">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="P21">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="Q21">
+        <v>0.001066092526666667</v>
+      </c>
+      <c r="R21">
+        <v>0.00959483274</v>
+      </c>
+      <c r="S21">
+        <v>3.018540150822326E-07</v>
+      </c>
+      <c r="T21">
+        <v>3.018540150822326E-07</v>
       </c>
     </row>
   </sheetData>
